--- a/medicine/Handicap/UI_Automation/UI_Automation.xlsx
+++ b/medicine/Handicap/UI_Automation/UI_Automation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UI Automation (UIA de Microsoft) est une bibliothèque logicielle (API) pour les technologies concernant les personnes handicapées[1], notamment celle du lecteur d'écran pour les non-voyants. Il fonctionne sur Windows Vista, Windows XP (et Windows Server 2003) ; il est basé sur WPF[2] (Windows Presentation Foundation) de .NET 3.0. Il sert aussi à effectuer des tests fonctionnels et, de manière plus générale, il permet de piloter les composants Windows accessible depuis le bureau. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UI Automation (UIA de Microsoft) est une bibliothèque logicielle (API) pour les technologies concernant les personnes handicapées, notamment celle du lecteur d'écran pour les non-voyants. Il fonctionne sur Windows Vista, Windows XP (et Windows Server 2003) ; il est basé sur WPF (Windows Presentation Foundation) de .NET 3.0. Il sert aussi à effectuer des tests fonctionnels et, de manière plus générale, il permet de piloter les composants Windows accessible depuis le bureau. 
 Il a pour but d'être le successeur de Microsoft Active Accessibility (MSAA).
-En 2007, le logiciel libre Mono[3] n'inclut pas le support WPF et surtout les développeurs de Mono ne prévoient pas de l'inclure. 
+En 2007, le logiciel libre Mono n'inclut pas le support WPF et surtout les développeurs de Mono ne prévoient pas de l'inclure. 
 </t>
         </is>
       </c>
